--- a/data/trans_dic/P64D1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P64D1_R-Edad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.4388678072706452</v>
+        <v>0.4388678072706451</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.3335598236996267</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3897170324115308</v>
+        <v>0.3897170324115309</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2932570303769532</v>
+        <v>0.3007743784012012</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2196782697236737</v>
+        <v>0.2171901209299776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.301439661720788</v>
+        <v>0.2893120061684551</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5891619256267394</v>
+        <v>0.5981825110642058</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4885873919898207</v>
+        <v>0.465707848562936</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4968928009962597</v>
+        <v>0.4976780823863917</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.2137410828132278</v>
+        <v>0.2137410828132279</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.3772272345778406</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1684652615627578</v>
+        <v>0.1673911703271936</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3183857728785153</v>
+        <v>0.322439918644337</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2510433573435328</v>
+        <v>0.2506843354014857</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2723788051496559</v>
+        <v>0.2682702743971065</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4323123862309303</v>
+        <v>0.4303749713719476</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3281557897698867</v>
+        <v>0.3256785376439744</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.229325581527926</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3613276450054947</v>
+        <v>0.3613276450054946</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.2854637495781311</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1928262132000631</v>
+        <v>0.1932574528705216</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3206181727807493</v>
+        <v>0.3210531623193481</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.256938920995648</v>
+        <v>0.2583586898660122</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2701459384973566</v>
+        <v>0.2659180503107209</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3997404121476045</v>
+        <v>0.403392323353428</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3145492060842153</v>
+        <v>0.3136432066893674</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1942828896637403</v>
+        <v>0.1941119403163027</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.319934822604542</v>
+        <v>0.3162186024875954</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.258601980123336</v>
+        <v>0.2601063502059984</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2646266217136351</v>
+        <v>0.2675424836766137</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3909214205831386</v>
+        <v>0.3860524790778607</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3121102146113827</v>
+        <v>0.3090238390047104</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.2672989105577733</v>
+        <v>0.2672989105577732</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.4578935248521152</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.346489234186053</v>
+        <v>0.3464892341860529</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2258712644040467</v>
+        <v>0.2230618985543943</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4083349765355379</v>
+        <v>0.4040840429574676</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3139373174833003</v>
+        <v>0.312527259890831</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3172527634087882</v>
+        <v>0.3177119123414815</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5097818357334771</v>
+        <v>0.5069115628027158</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3838948161678136</v>
+        <v>0.3841921044578329</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.2440803485889213</v>
+        <v>0.2440803485889212</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.3749903532407272</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.224016769771524</v>
+        <v>0.2225238605193694</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3527085089881352</v>
+        <v>0.3499028627942268</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2874038432269637</v>
+        <v>0.2857924932545799</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2678539731908481</v>
+        <v>0.2662870415472764</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3973483701936252</v>
+        <v>0.3958787381713141</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3183516809033611</v>
+        <v>0.3179448902116055</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>30739</v>
+        <v>31527</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>20154</v>
+        <v>19926</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>59252</v>
+        <v>56868</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>61757</v>
+        <v>62702</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>44824</v>
+        <v>42725</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>97671</v>
+        <v>97826</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>66699</v>
+        <v>66274</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>100329</v>
+        <v>101607</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>178502</v>
+        <v>178247</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>107840</v>
+        <v>106214</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>136230</v>
+        <v>135619</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>233332</v>
+        <v>231570</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>103450</v>
+        <v>103682</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>127285</v>
+        <v>127458</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>239851</v>
+        <v>241177</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>144932</v>
+        <v>142664</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>158697</v>
+        <v>160146</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>293630</v>
+        <v>292784</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>105602</v>
+        <v>105510</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>145566</v>
+        <v>143875</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>258223</v>
+        <v>259725</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>143838</v>
+        <v>145423</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>177863</v>
+        <v>175648</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>311653</v>
+        <v>308571</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>73952</v>
+        <v>73032</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>95033</v>
+        <v>94043</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>175848</v>
+        <v>175058</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>103870</v>
+        <v>104021</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>118643</v>
+        <v>117975</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>215034</v>
+        <v>215201</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>427467</v>
+        <v>424618</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>526093</v>
+        <v>521908</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>977107</v>
+        <v>971629</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>511117</v>
+        <v>508127</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>592676</v>
+        <v>590484</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1082323</v>
+        <v>1080940</v>
       </c>
     </row>
     <row r="28">
